--- a/docs/ST1a/ST1a_13.11.2024_output.xlsx
+++ b/docs/ST1a/ST1a_13.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731658383.8222985</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731658385.5642867</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658383.8222985.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658385.5642867.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>134.82</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>134.8</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.01999999999998181</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731658385.5802162</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731658387.558841</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658385.5802162.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658387.558841.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>134.8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.2999999999999829</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731658389.8128195</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731658390.713437</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658389.8128195.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658390.713437.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>135.68</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>135.88</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731658400.1850436</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731658401.6681979</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658400.1850436.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658401.6681979.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>135.41</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>135.36</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.04999999999998295</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731658405.5784357</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731658407.9553778</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658405.5784357.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731658407.9553778.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>136.05</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>136.28</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.2299999999999898</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731658409.6650944</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731658412.1994953</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731658409.6650944.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731658412.1994953.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6991.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6983.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-8</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731658412.3685539</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731658413.8615186</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731658412.3685539.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731658413.8615186.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6988</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6988</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731658413.9155428</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731658415.9625514</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731658413.9155428.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731658415.9625514.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6989</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>7013</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>24</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731658418.1945257</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731658419.6953208</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731658418.1945257.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731658419.6953208.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>7020</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>7012</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-8</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731658419.7112515</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731658422.0330422</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731658419.7112515.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731658422.0330422.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>7012</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>7020</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-8</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731658437.7307858</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731658439.7329957</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658437.7307858.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658439.7329957.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>485.4</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>487.45</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>2.050000000000011</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731658441.7531664</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731658442.8962252</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658441.7531664.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658442.8962252.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>488.25</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>490</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.75</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731658448.1260211</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731658449.7848904</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658448.1260211.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658449.7848904.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>488.3</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>488.45</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731658449.8018453</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731658458.163312</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658449.8018453.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658458.163312.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>488.45</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>488.75</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731658458.1802657</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731658459.8787541</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658458.1802657.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658459.8787541.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>488.75</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>489.35</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.6000000000000227</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731658460.1056046</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731658462.7612343</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658460.1056046.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731658462.7612343.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>488.95</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>491.7</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>2.75</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731658466.2628644</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731658467.6058137</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658466.2628644.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658467.6058137.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>924.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>924.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731658470.5412407</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731658472.7300887</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658470.5412407.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658472.7300887.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>927.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>932.2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>4.800000000000068</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731658474.9984908</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731658478.4623668</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658474.9984908.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658478.4623668.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>928.6</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>928.2</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731658478.963189</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731658479.6402507</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658478.963189.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658479.6402507.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>927.6</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>928.8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1.199999999999932</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731658482.634273</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731658484.760043</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658482.634273.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658484.760043.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>927.2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>927.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.5999999999999091</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731658484.941808</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731658486.1648846</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658484.941808.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658486.1648846.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>927.4</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>927.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1683,51 +1831,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731658486.511702</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731658487.7693133</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658486.511702.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658487.7693133.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>928</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>927.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1735,51 +1889,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731658487.785275</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731658488.1036863</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658487.785275.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658488.1036863.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>927.6</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>929.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1787,51 +1947,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731658489.4190328</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731658491.4820013</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658489.4190328.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731658491.4820013.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>929.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>932.8</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>3</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1839,51 +2005,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731658493.9598472</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731658499.8017948</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731658493.9598472.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731658499.8017948.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>37.68</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>38.12</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>1.17</v>
       </c>
     </row>
@@ -1891,51 +2063,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731658501.7649481</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731658503.2073007</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731658501.7649481.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731658503.2073007.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>38.275</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>38.305</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1943,51 +2121,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731658510.8021436</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731658512.2150908</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731658510.8021436.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731658512.2150908.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>38.15</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>38.13</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1995,51 +2179,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731658512.3118324</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731658513.9396377</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731658512.3118324.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731658513.9396377.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>38.14</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>38.115</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.02499999999999858</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2047,51 +2237,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731658514.0751626</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731658518.8704438</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731658514.0751626.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731658518.8704438.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>38.13</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>38.38</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.66</v>
       </c>
     </row>
@@ -2099,51 +2295,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731658518.887374</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731658519.6311998</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731658518.887374.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731658519.6311998.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>38.38</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>38.49</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2151,95 +2353,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731658520.096779</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731658520.096779.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731658520.096779.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>38.38</v>
       </c>
-      <c r="J34" t="n">
-        <v>38.38</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>38.405</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.02499999999999858</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731658522.310716</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731658525.0778155</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731658522.310716.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731658525.0778155.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1231.2</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1231.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2247,51 +2461,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731658525.5416048</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731658526.8646924</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731658525.5416048.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731658526.8646924.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1230.8</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1229.6</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2299,51 +2519,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731658526.9634018</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731658527.6380463</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731658526.9634018.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731658527.6380463.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1227</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1231</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>4</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2351,51 +2577,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731658529.58918</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731658532.773115</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731658529.58918.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731658532.773115.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1236.6</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1234</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-2.599999999999909</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -2403,51 +2635,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731658532.8314102</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731658535.2901473</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731658532.8314102.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731658535.2901473.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1234.4</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1236.4</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-2</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -2455,51 +2693,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731658539.586194</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731658540.7828453</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731658539.586194.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731658540.7828453.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1222.6</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1221.2</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>1.399999999999864</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2507,51 +2751,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731658542.39806</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731658545.973537</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731658542.39806.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731658545.973537.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1217.4</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1226.4</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-9</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.74</v>
       </c>
     </row>
@@ -2559,95 +2809,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731658546.345005</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731658546.345005.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731658546.345005.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1226.2</v>
       </c>
-      <c r="J42" t="n">
-        <v>1226.2</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1233.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>7</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731658552.5750096</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731658554.671182</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658552.5750096.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658554.671182.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>80.95</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>81.03</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2655,51 +2917,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731658554.7300482</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731658555.8648503</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658554.7300482.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658555.8648503.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>80.95</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>80.94</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2707,51 +2975,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731658555.9241374</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731658557.5935209</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658555.9241374.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658557.5935209.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>80.98999999999999</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>81.15000000000001</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.1600000000000108</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -2759,51 +3033,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731658557.6104734</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731658560.28759</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658557.6104734.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658560.28759.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>81.15000000000001</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>81.05</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.1000000000000085</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -2811,51 +3091,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731658562.5915108</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731658564.0642774</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658562.5915108.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658564.0642774.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>81.08</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>81.09</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.01000000000000512</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2863,51 +3149,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731658568.3367045</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731658569.7943845</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658568.3367045.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658569.7943845.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>80.34999999999999</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>80.31999999999999</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2915,51 +3207,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731658571.045351</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731658573.1854389</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658571.045351.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658573.1854389.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>80.2</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>80.3</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -2967,51 +3265,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731658573.201402</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731658573.5785158</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658573.201402.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731658573.5785158.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>80.3</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>80.51000000000001</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.210000000000008</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -3019,51 +3323,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731658578.7224061</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731658580.0643268</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658578.7224061.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658580.0643268.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>14.151</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>14.153</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.002000000000000668</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3071,51 +3381,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731658583.16055</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731658588.4972503</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658583.16055.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658588.4972503.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>14.212</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>14.206</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.006000000000000227</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3123,51 +3439,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731658588.5142338</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731658589.8170965</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658588.5142338.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658589.8170965.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>14.206</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>14.2</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3175,51 +3497,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731658592.580069</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731658595.8408635</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658592.580069.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658595.8408635.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>14.261</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>14.212</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.04899999999999949</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -3227,51 +3555,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731658595.8578188</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731658596.9114892</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658595.8578188.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658596.9114892.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>14.212</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>14.184</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.02800000000000047</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3279,51 +3613,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731658597.091136</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731658598.7361379</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658597.091136.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658598.7361379.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>14.182</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>14.173</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.009000000000000341</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3331,51 +3671,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731658599.1991546</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731658602.5311406</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658599.1991546.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658602.5311406.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>14.178</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>14.224</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.04599999999999937</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -3383,51 +3729,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731658602.589343</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731658603.65978</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658602.589343.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658603.65978.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>14.232</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>14.234</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.002000000000000668</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3435,51 +3787,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731658603.6767337</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731658606.0547526</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658603.6767337.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731658606.0547526.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>14.234</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>14.35</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.1159999999999997</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.8099999999999999</v>
       </c>
     </row>
@@ -3487,51 +3845,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731658608.3363018</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731658609.8031852</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731658608.3363018.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731658609.8031852.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>104.46</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>104.29</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.1699999999999875</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3539,51 +3903,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731658609.9831588</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731658614.0390453</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731658609.9831588.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731658614.0390453.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>104.32</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>105.22</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.9000000000000057</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.86</v>
       </c>
     </row>
@@ -3591,51 +3961,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731658620.063013</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731658621.7621858</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731658620.063013.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731658621.7621858.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>105.71</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>105.67</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3643,51 +4019,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731658629.5120482</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731658630.3586898</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731658629.5120482.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731658630.3586898.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>104.99</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>105.46</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.4699999999999989</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -3695,51 +4077,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731658631.5539289</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731658632.6870406</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731658631.5539289.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731658632.6870406.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>105.25</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>105.89</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.6400000000000006</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -3747,51 +4135,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731658636.1805935</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731658642.5364597</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731658636.1805935.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731658642.5364597.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>347.76</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>351.28</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>3.519999999999982</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -3799,51 +4193,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731658655.4226732</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731658657.1104138</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731658655.4226732.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731658657.1104138.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>349.34</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>350.11</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.7700000000000387</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -3851,95 +4251,107 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731658658.715544</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731658658.715544.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731658658.715544.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>350.71</v>
       </c>
-      <c r="J67" t="n">
-        <v>350.71</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>351.71</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731658666.8269823</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731658667.7698698</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658666.8269823.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658667.7698698.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>2780</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>2784.55</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>4.550000000000182</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3947,51 +4359,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731658669.5444057</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731658672.6797295</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658669.5444057.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658672.6797295.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>2789.05</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>2786.55</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-2.5</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -3999,51 +4417,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731658674.5117652</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731658675.965118</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658674.5117652.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658675.965118.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>2788.3</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>2787.15</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-1.150000000000091</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4051,51 +4475,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731658675.982076</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731658677.0742388</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658675.982076.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658677.0742388.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>2787.15</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>2783.1</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>4.050000000000182</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4103,51 +4533,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731658680.5844235</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731658682.5679224</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658680.5844235.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658682.5679224.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>2779.75</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>2777.1</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-2.650000000000091</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -4155,51 +4591,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731658682.745495</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731658684.676273</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658682.745495.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658684.676273.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>2778.5</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>2781.1</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-2.599999999999909</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -4207,51 +4649,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731658687.8634636</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731658688.970007</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658687.8634636.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731658688.970007.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>2789</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>2797.2</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>8.199999999999818</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -4259,51 +4707,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731658690.506654</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731658692.5042694</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658690.506654.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658692.5042694.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>591.7</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>591.6</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -4311,51 +4765,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731658694.7328675</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731658700.4383945</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658694.7328675.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658700.4383945.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>593.6</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>595.7</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>2.100000000000023</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -4363,51 +4823,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731658700.5503356</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731658702.0670657</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658700.5503356.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658702.0670657.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>596.1</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>596.1</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4415,51 +4881,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731658702.1254578</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731658704.5360038</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658702.1254578.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658704.5360038.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>595.3</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>591</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-4.299999999999955</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -4467,51 +4939,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731658704.5529583</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731658704.9461763</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658704.5529583.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658704.9461763.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>591</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>590.3</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.7000000000000455</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4519,51 +4997,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731658706.3063796</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731658708.083419</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658706.3063796.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658708.083419.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>589.6</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>590.5</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -4571,51 +5055,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731658708.263523</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731658710.4128013</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658708.263523.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658710.4128013.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>590.1</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>589.8</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.3000000000000682</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -4623,51 +5113,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731658710.4297268</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731658712.1485798</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658710.4297268.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/TATN1731658712.1485798.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>589.8</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>589.4</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4675,44 +5171,50 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731658715.4762328</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731658715.4762328.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731658715.4762328.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>592.4</v>
       </c>
-      <c r="J83" t="n">
-        <v>592.4</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>594.6</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2.200000000000045</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -4817,19 +5319,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.399999999999977</v>
+        <v>-0.1999999999999318</v>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2666666666666642</v>
+        <v>-0.02222222222221464</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4</v>
+        <v>-0.02999999999999997</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -4839,19 +5341,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-6.799999999999955</v>
+        <v>0.2000000000000455</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8499999999999943</v>
+        <v>0.02500000000000568</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.55</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4883,19 +5385,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3249999999999957</v>
+        <v>0.3499999999999943</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04642857142857082</v>
+        <v>0.04999999999999919</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8599999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -5015,19 +5517,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.749999999999943</v>
+        <v>3.749999999999943</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9166666666666478</v>
+        <v>1.249999999999981</v>
       </c>
       <c r="E13" t="n">
-        <v>0.79</v>
+        <v>1.08</v>
       </c>
       <c r="F13" t="n">
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="14">
